--- a/output_additional_column/1943.xlsx
+++ b/output_additional_column/1943.xlsx
@@ -490,7 +490,7 @@
         <v>48948</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76710648802</v>
+        <v>44703.79032580508</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>65073</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.76710648802</v>
+        <v>44703.79032580508</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>75865</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76710648802</v>
+        <v>44703.79032580508</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>48948</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76710648802</v>
+        <v>44703.79032580508</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>57513</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.76710648802</v>
+        <v>44703.79032580508</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>77598</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.76710648802</v>
+        <v>44703.79032580508</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" s="2" t="n">
-        <v>44703.76710648802</v>
+        <v>44703.79032580508</v>
       </c>
     </row>
   </sheetData>
